--- a/story_xlsx_files_postpilotiiedits/14.xlsx
+++ b/story_xlsx_files_postpilotiiedits/14.xlsx
@@ -55,7 +55,7 @@
     </r>
   </si>
   <si>
-    <t>She had been putting it off with a growing sense of dread as she had been since she started to think about it a week ago.</t>
+    <t>She had been putting it off with a growing sense of dread since she started to think about breaking up a week ago.</t>
   </si>
   <si>
     <t xml:space="preserve">Now this lecture was the last chance to do it. </t>
@@ -73,7 +73,7 @@
     <t xml:space="preserve">As he fiddled with the cords to connect his laptop to the projector, he continued to say, “Welcome to Week 4 of Intro to Ancient Philosophy. </t>
   </si>
   <si>
-    <t>Today we are going to continue our lecture on Aristotelian Philosophy.”</t>
+    <t>Today we are going to have our lecture on Aristotelian Philosophy.”</t>
   </si>
   <si>
     <t>Mostly everyone in class was taking notes.</t>
@@ -124,7 +124,7 @@
     <t>Remember the final exam is coming up next week on Tuesday on the Pre-Socratics, Plato, and Aristotle, so feel free to come by office hours to discuss if you have the inspiration.</t>
   </si>
   <si>
-    <t xml:space="preserve">If anyone has any conflicts with another exam, please email me so that we can figure out a time to reschedule it. </t>
+    <t xml:space="preserve">If anyone has any conflicts with another exam, please email me so that we can figure out a time to reschedule. </t>
   </si>
   <si>
     <t xml:space="preserve">Have a good day, folks.” </t>
@@ -154,7 +154,7 @@
     <t xml:space="preserve">I don’t want this to end. </t>
   </si>
   <si>
-    <t xml:space="preserve">But if this is what you think is best, I can’t make it otherwise.” </t>
+    <t xml:space="preserve">But if this is what you want, I can’t make it otherwise.” </t>
   </si>
   <si>
     <t>They hugged one last time, and then Maria remembered she had left her favorite Alpaca sweater in Henry’s room.</t>
@@ -1503,7 +1503,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" ht="104.05" customHeight="1">
+    <row r="3" ht="92.05" customHeight="1">
       <c r="A3" t="s" s="8">
         <v>5</v>
       </c>
@@ -1848,7 +1848,7 @@
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
     </row>
-    <row r="26" ht="223.8" customHeight="1">
+    <row r="26" ht="205.8" customHeight="1">
       <c r="A26" t="s" s="12">
         <v>28</v>
       </c>
@@ -1923,7 +1923,7 @@
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
     </row>
-    <row r="31" ht="115.8" customHeight="1">
+    <row r="31" ht="97.8" customHeight="1">
       <c r="A31" t="s" s="12">
         <v>33</v>
       </c>
